--- a/Tables/aq_hmf_metrics_outlet_max_30_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_max_30_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,7 +562,7 @@
         <v>96.667</v>
       </c>
       <c r="G2" t="n">
-        <v>10.31034482758621</v>
+        <v>10.41379310344828</v>
       </c>
       <c r="H2" t="n">
         <v>236.9230769230769</v>
@@ -571,7 +571,7 @@
         <v>0.1337775275806302</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1866647434011091</v>
+        <v>0.206001660993408</v>
       </c>
       <c r="K2" t="n">
         <v>0.3569582265345533</v>
@@ -589,7 +589,7 @@
         <v>0.132207233842535</v>
       </c>
       <c r="P2" t="n">
-        <v>0.057005210227392</v>
+        <v>0.04342243443855408</v>
       </c>
       <c r="Q2" t="n">
         <v>0.09174902955954624</v>
@@ -601,7 +601,7 @@
         <v>0.1576083966887808</v>
       </c>
       <c r="T2" t="n">
-        <v>0.244168239514752</v>
+        <v>0.236339197766784</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>14.8</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9333333333333</v>
+        <v>160.4615384615385</v>
       </c>
       <c r="I13" t="n">
         <v>0.793342897127424</v>
@@ -1351,10 +1351,10 @@
         <v>0.05128633988805587</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.09061218745572656</v>
+        <v>0.2379270252962938</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07066288459033854</v>
+        <v>0.1700247675859489</v>
       </c>
       <c r="S13" t="n">
         <v>1.270751338717056</v>
@@ -1447,10 +1447,10 @@
         <v>4.847181569016503</v>
       </c>
       <c r="C15" t="n">
-        <v>37.79310344827586</v>
+        <v>49.5</v>
       </c>
       <c r="D15" t="n">
-        <v>13.46765188834155</v>
+        <v>14.15081168831169</v>
       </c>
       <c r="E15" t="n">
         <v>0.8116070951005997</v>
@@ -1459,7 +1459,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>14.23333333333333</v>
+        <v>12.06896551724138</v>
       </c>
       <c r="H15" t="n">
         <v>212.4</v>
@@ -1927,61 +1927,61 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.001641317400777</v>
+        <v>0.8887935954884314</v>
       </c>
       <c r="C22" t="n">
-        <v>60.88888888888889</v>
+        <v>91.25</v>
       </c>
       <c r="D22" t="n">
-        <v>33.6287037037037</v>
+        <v>52.32202380952381</v>
       </c>
       <c r="E22" t="n">
-        <v>1.074511161406133</v>
+        <v>0.3323857731941645</v>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>86.667</v>
       </c>
       <c r="G22" t="n">
-        <v>2.666666666666667</v>
+        <v>4.521739130434782</v>
       </c>
       <c r="H22" t="n">
-        <v>209.0555555555555</v>
+        <v>245.0454545454545</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4124844818442399</v>
+        <v>0.214442346627936</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4400655435021854</v>
+        <v>0.2202651964279872</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5762930940764152</v>
+        <v>0.3081584229266592</v>
       </c>
       <c r="L22" t="n">
-        <v>0.78639336792197</v>
+        <v>0.3273784980019619</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6119733587335551</v>
+        <v>0.2040117795491328</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5527548131619984</v>
+        <v>0.3005373401001216</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03247829037633533</v>
+        <v>0.070706033286336</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.000978630218496</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.0174685494001536</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.0085263157786464</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.0088933021105824</v>
       </c>
       <c r="T22" t="n">
-        <v>0.07590500632209533</v>
+        <v>0.0368026126543152</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_max_30_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_max_30_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -565,10 +565,10 @@
         <v>10.41379310344828</v>
       </c>
       <c r="H2" t="n">
-        <v>236.9230769230769</v>
+        <v>210.125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1337775275806302</v>
+        <v>0.1183384125960825</v>
       </c>
       <c r="J2" t="n">
         <v>0.206001660993408</v>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04036691735965275</v>
+        <v>1.063234941638582</v>
       </c>
       <c r="C3" t="n">
-        <v>115.7777777777778</v>
+        <v>134.75</v>
       </c>
       <c r="D3" t="n">
-        <v>19.62006172839506</v>
+        <v>70.1875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01333982278775678</v>
+        <v>0.5380468165031904</v>
       </c>
       <c r="F3" t="n">
-        <v>93.333</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>8.071428571428571</v>
+        <v>7.482758620689655</v>
       </c>
       <c r="H3" t="n">
-        <v>228.4090909090909</v>
+        <v>262.0833333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0086669938725552</v>
+        <v>0.7256946755112968</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006469025352892384</v>
+        <v>0.3397843263826851</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01466540294358869</v>
+        <v>0.3569582265345533</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01782623874501383</v>
+        <v>0.2599895445507014</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00480546582490273</v>
+        <v>0.1754765534281536</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00638870777281728</v>
+        <v>0.1673066221540762</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01508540132494983</v>
+        <v>0.132207233842535</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01973886277037333</v>
+        <v>0.04342243443855408</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02215136489781538</v>
+        <v>0.09174902955954624</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01593103977437813</v>
+        <v>0.1901405117271341</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01341593292867072</v>
+        <v>0.1576083966887808</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01019942394148224</v>
+        <v>0.0418863519818472</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.27338246332167</v>
+        <v>0.04036691735965275</v>
       </c>
       <c r="C4" t="n">
-        <v>52.19047619047619</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="D4" t="n">
-        <v>24.69375</v>
+        <v>16.51114718614719</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4136861301528758</v>
+        <v>0.01333982278775678</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>73.333</v>
       </c>
       <c r="G4" t="n">
-        <v>12.83333333333333</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="H4" t="n">
-        <v>151.1538461538462</v>
+        <v>228.4090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9696098008298629</v>
+        <v>0.003817147167243625</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7583740357673937</v>
+        <v>0.006469025352892384</v>
       </c>
       <c r="K4" t="n">
-        <v>0.779193535218336</v>
+        <v>0.01466540294358869</v>
       </c>
       <c r="L4" t="n">
-        <v>0.344338032593664</v>
+        <v>0.01782623874501383</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08445133953702982</v>
+        <v>0.00480546582490273</v>
       </c>
       <c r="N4" t="n">
-        <v>0.127466585959104</v>
+        <v>0.004006675219559021</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0008290221238433958</v>
+        <v>0.01508540132494983</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0008379521245872</v>
+        <v>0.01973886277037333</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0276707694279744</v>
+        <v>0.02215136489781538</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0594395528959008</v>
+        <v>0.01593103977437813</v>
       </c>
       <c r="S4" t="n">
-        <v>0.217500566060736</v>
+        <v>0.001574476217243119</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7840115721493086</v>
+        <v>0.008220885287453761</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.579267318544288</v>
+        <v>2.27338246332167</v>
       </c>
       <c r="C5" t="n">
-        <v>46.08695652173913</v>
+        <v>60.77777777777778</v>
       </c>
       <c r="D5" t="n">
-        <v>16.90178571428571</v>
+        <v>24.69375</v>
       </c>
       <c r="E5" t="n">
-        <v>1.113623956256206</v>
+        <v>0.3245164325395363</v>
       </c>
       <c r="F5" t="n">
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>10.24137931034483</v>
+        <v>7.033333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>222.1034482758621</v>
+        <v>153.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.015658083495936</v>
+        <v>0.9696098008298629</v>
       </c>
       <c r="J5" t="n">
-        <v>0.21896851138848</v>
+        <v>0.646823604101976</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421667295394464</v>
+        <v>0.5023883324929086</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24787096420862</v>
+        <v>0.199291053780864</v>
       </c>
       <c r="M5" t="n">
-        <v>1.041204985996303</v>
+        <v>0.077923431147744</v>
       </c>
       <c r="N5" t="n">
-        <v>0.633243653525376</v>
+        <v>0.038900551185216</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6105918590751168</v>
+        <v>0.0010153288516896</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0673786905434496</v>
+        <v>2.813561878176e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.370411537700736</v>
+        <v>0.0001996160988177197</v>
       </c>
       <c r="R5" t="n">
-        <v>0.564302649740256</v>
+        <v>0.021285207252288</v>
       </c>
       <c r="S5" t="n">
-        <v>0.10214452905552</v>
+        <v>0.07176621602304001</v>
       </c>
       <c r="T5" t="n">
-        <v>0.097699916813184</v>
+        <v>0.7840115721493086</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.632441890487853</v>
+        <v>2.579267318544288</v>
       </c>
       <c r="C6" t="n">
-        <v>90.91666666666667</v>
+        <v>46.08695652173913</v>
       </c>
       <c r="D6" t="n">
-        <v>52.56944444444444</v>
+        <v>21.04722222222222</v>
       </c>
       <c r="E6" t="n">
-        <v>1.230578228445636</v>
+        <v>1.113623956256206</v>
       </c>
       <c r="F6" t="n">
-        <v>66.667</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>180.1666666666667</v>
+        <v>228.4642857142857</v>
       </c>
       <c r="I6" t="n">
-        <v>0.634699263178097</v>
+        <v>0.05058912410917636</v>
       </c>
       <c r="J6" t="n">
-        <v>1.181562539258671</v>
+        <v>0.318299478565824</v>
       </c>
       <c r="K6" t="n">
-        <v>0.981618535770336</v>
+        <v>0.696609960172992</v>
       </c>
       <c r="L6" t="n">
-        <v>0.951748469681688</v>
+        <v>1.24787096420862</v>
       </c>
       <c r="M6" t="n">
-        <v>0.457439724988416</v>
+        <v>1.041204985996303</v>
       </c>
       <c r="N6" t="n">
-        <v>0.314507286469152</v>
+        <v>0.633243653525376</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08523869203100161</v>
+        <v>0.6105918590751168</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.21591029195568</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.370411537700736</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.564302649740256</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.175113644722128</v>
       </c>
       <c r="T6" t="n">
-        <v>0.459252812223576</v>
+        <v>0.06850411529472</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.461524756896563</v>
+        <v>0.4005954644808863</v>
       </c>
       <c r="C7" t="n">
-        <v>47.56521739130435</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="D7" t="n">
-        <v>15.38066666666667</v>
+        <v>8.222461629279811</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7274200632939276</v>
+        <v>0.05349738032885001</v>
       </c>
       <c r="F7" t="n">
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>9.96551724137931</v>
+        <v>12.4</v>
       </c>
       <c r="H7" t="n">
-        <v>198.2068965517241</v>
+        <v>240.3928571428571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9866395342315857</v>
+        <v>0.002881576678361472</v>
       </c>
       <c r="J7" t="n">
-        <v>1.148166253490688</v>
+        <v>0.0278466510255762</v>
       </c>
       <c r="K7" t="n">
-        <v>1.00862948960689</v>
+        <v>0.05499563071333408</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8492529735388801</v>
+        <v>0.03995869510896462</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6088711009409281</v>
+        <v>0.1686837995290544</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9960009048743039</v>
+        <v>0.1004983173368383</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9364879547120161</v>
+        <v>0.0833058973494718</v>
       </c>
       <c r="P7" t="n">
-        <v>0.560999772752832</v>
+        <v>0.05726422102522041</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.629320394881584</v>
+        <v>0.03828544131663203</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4021517777872864</v>
+        <v>0.06582756164713327</v>
       </c>
       <c r="S7" t="n">
-        <v>0.789958467621792</v>
+        <v>0.07502954003913299</v>
       </c>
       <c r="T7" t="n">
-        <v>0.568318528744008</v>
+        <v>0.02331761250962871</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,65 +957,65 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.993992554125023</v>
+        <v>2.632441890487853</v>
       </c>
       <c r="C8" t="n">
-        <v>46.78260869565217</v>
+        <v>90.91666666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>19.49866666666667</v>
+        <v>52.56944444444444</v>
       </c>
       <c r="E8" t="n">
-        <v>1.254425340096996</v>
+        <v>1.230578228445636</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>73.333</v>
       </c>
       <c r="G8" t="n">
-        <v>5.956521739130435</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>243.5652173913043</v>
+        <v>180.1666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>1.04958090933696</v>
+        <v>0.634699263178097</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0826096792112</v>
+        <v>1.181562539258671</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6848372716516801</v>
+        <v>0.981618535770336</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7615060486731472</v>
+        <v>0.951748469681688</v>
       </c>
       <c r="M8" t="n">
-        <v>2.12743335831936</v>
+        <v>0.457439724988416</v>
       </c>
       <c r="N8" t="n">
-        <v>2.449878423227424</v>
+        <v>0.314507286469152</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29851997116688</v>
+        <v>0.08523869203100161</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0489315109248</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0021285207252288</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.057739182891264</v>
+        <v>0.001240740012016512</v>
       </c>
       <c r="T8" t="n">
-        <v>0.197193989026944</v>
+        <v>0.459252812223576</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.21158728366614</v>
+        <v>3.461524756896563</v>
       </c>
       <c r="C9" t="n">
-        <v>51.52380952380953</v>
+        <v>40.55555555555556</v>
       </c>
       <c r="D9" t="n">
-        <v>13.61645962732919</v>
+        <v>11.71166666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9071395461443402</v>
+        <v>0.7274200632939276</v>
       </c>
       <c r="F9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>6.380952380952381</v>
+        <v>9.96551724137931</v>
       </c>
       <c r="H9" t="n">
-        <v>197.0740740740741</v>
+        <v>188.6206896551724</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5131828129102081</v>
+        <v>0.9866395342315857</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2103281851893786</v>
+        <v>1.148166253490688</v>
       </c>
       <c r="K9" t="n">
-        <v>0.480711318577056</v>
+        <v>1.00862948960689</v>
       </c>
       <c r="L9" t="n">
-        <v>0.302886052624512</v>
+        <v>0.8492529735388801</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7705081920291841</v>
+        <v>0.6088711009409281</v>
       </c>
       <c r="N9" t="n">
-        <v>1.235809791597574</v>
+        <v>0.584181076053456</v>
       </c>
       <c r="O9" t="n">
-        <v>0.70767197674992</v>
+        <v>0.3764790450554084</v>
       </c>
       <c r="P9" t="n">
-        <v>0.780212941695936</v>
+        <v>0.2191789168854565</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0911532884140368</v>
+        <v>0.230100430123872</v>
       </c>
       <c r="R9" t="n">
-        <v>0.248143924777392</v>
+        <v>0.4021517777872864</v>
       </c>
       <c r="S9" t="n">
-        <v>0.202087140119424</v>
+        <v>0.47110443193215</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4749781765470337</v>
+        <v>0.568318528744008</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.514198894338074</v>
+        <v>2.183813332573824</v>
       </c>
       <c r="C10" t="n">
-        <v>52.09523809523809</v>
+        <v>47.56521739130435</v>
       </c>
       <c r="D10" t="n">
-        <v>33.56349206349206</v>
+        <v>15.38066666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5513319158919361</v>
+        <v>0.5725547451764281</v>
       </c>
       <c r="F10" t="n">
-        <v>93.10300000000001</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>7.32</v>
+        <v>14.56666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>220</v>
+        <v>197.9130434782609</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6740519511186721</v>
+        <v>0.7394638667646719</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6018704610884412</v>
+        <v>0.46512119551296</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6965983098132481</v>
+        <v>0.61714868153904</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6699865580860033</v>
+        <v>0.284466833869248</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3384429505632</v>
+        <v>0.6088711009409281</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09884165206809602</v>
+        <v>0.9960009048743039</v>
       </c>
       <c r="O10" t="n">
-        <v>1.221379444193933</v>
+        <v>0.9364879547120161</v>
       </c>
       <c r="P10" t="n">
-        <v>0.154195423801776</v>
+        <v>0.560999772752832</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.25240504385376</v>
+        <v>0.629320394881584</v>
       </c>
       <c r="R10" t="n">
-        <v>0.442503963796608</v>
+        <v>0.373032868643136</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2698083512393472</v>
+        <v>0.789958467621792</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6863459932385281</v>
+        <v>0.5362893597358079</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9410963750297181</v>
+        <v>8.263255721000682</v>
       </c>
       <c r="C11" t="n">
-        <v>49.72727272727273</v>
+        <v>47.47826086956522</v>
       </c>
       <c r="D11" t="n">
-        <v>8.222461629279811</v>
+        <v>20.8</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1316065312507208</v>
+        <v>2.511858570851987</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>83.333</v>
       </c>
       <c r="G11" t="n">
-        <v>12.4</v>
+        <v>5.956521739130435</v>
       </c>
       <c r="H11" t="n">
-        <v>240.3928571428571</v>
+        <v>243.5652173913043</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008598897519851521</v>
+        <v>1.04958090933696</v>
       </c>
       <c r="J11" t="n">
-        <v>0.066587631116832</v>
+        <v>2.13586045186752</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2886306724417536</v>
+        <v>1.2512486365056</v>
       </c>
       <c r="L11" t="n">
-        <v>0.138557728435392</v>
+        <v>1.595656571257728</v>
       </c>
       <c r="M11" t="n">
-        <v>0.250517685575232</v>
+        <v>3.412639263066677</v>
       </c>
       <c r="N11" t="n">
-        <v>0.41036207755788</v>
+        <v>3.51328248440064</v>
       </c>
       <c r="O11" t="n">
-        <v>0.204044400556416</v>
+        <v>1.29851997116688</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07810692431371201</v>
+        <v>0.0489315109248</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.056201335405056</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07324435541556</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07502954003913299</v>
+        <v>0.043549044723072</v>
       </c>
       <c r="T11" t="n">
-        <v>0.066220644784896</v>
+        <v>0.25933700790144</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.576071879953791</v>
+        <v>1.210373660020035</v>
       </c>
       <c r="C12" t="n">
-        <v>91.25</v>
+        <v>60.88888888888889</v>
       </c>
       <c r="D12" t="n">
-        <v>38.64010989010989</v>
+        <v>18.73989898989899</v>
       </c>
       <c r="E12" t="n">
-        <v>2.10209349727627</v>
+        <v>0.1874166315887357</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>96.667</v>
       </c>
       <c r="G12" t="n">
-        <v>11.6</v>
+        <v>7.344827586206897</v>
       </c>
       <c r="H12" t="n">
-        <v>286</v>
+        <v>224.8275862068965</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03943023479097696</v>
+        <v>0.1252728232193088</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06276689563878721</v>
+        <v>0.2397858110675496</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4432705574677632</v>
+        <v>0.2050121571058176</v>
       </c>
       <c r="L12" t="n">
-        <v>1.089362227718822</v>
+        <v>0.1640048964963208</v>
       </c>
       <c r="M12" t="n">
-        <v>1.512411838296912</v>
+        <v>0.4172659059867779</v>
       </c>
       <c r="N12" t="n">
-        <v>1.416383748106992</v>
+        <v>0.5100976171836397</v>
       </c>
       <c r="O12" t="n">
-        <v>1.964005995283776</v>
+        <v>0.2491396810247117</v>
       </c>
       <c r="P12" t="n">
-        <v>1.588561502173632</v>
+        <v>0.2244246806785384</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.116477274987008</v>
+        <v>0.1272135013109316</v>
       </c>
       <c r="R12" t="n">
-        <v>1.09596798169367</v>
+        <v>0.1758098702204292</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8349183709098625</v>
+        <v>0.1937443175067456</v>
       </c>
       <c r="T12" t="n">
-        <v>0.251874952485408</v>
+        <v>0.1864535223789504</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.052730069720278</v>
+        <v>2.514198894338074</v>
       </c>
       <c r="C13" t="n">
-        <v>47.43478260869565</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="D13" t="n">
-        <v>27.95652173913044</v>
+        <v>33.56349206349206</v>
       </c>
       <c r="E13" t="n">
-        <v>1.425928052058574</v>
+        <v>0.5513319158919361</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>93.10300000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>14.8</v>
+        <v>5.407407407407407</v>
       </c>
       <c r="H13" t="n">
-        <v>160.4615384615385</v>
+        <v>238.1666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>0.793342897127424</v>
+        <v>0.6740519511186721</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4476254619400704</v>
+        <v>0.6018704610884412</v>
       </c>
       <c r="K13" t="n">
-        <v>0.766289702678243</v>
+        <v>0.6965983098132481</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8746303696512481</v>
+        <v>0.6699865580860033</v>
       </c>
       <c r="M13" t="n">
-        <v>1.014864002335814</v>
+        <v>0.3384429505632</v>
       </c>
       <c r="N13" t="n">
-        <v>0.661921014035232</v>
+        <v>0.09884165206809602</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05898623739826164</v>
+        <v>1.221379444193933</v>
       </c>
       <c r="P13" t="n">
-        <v>0.05128633988805587</v>
+        <v>0.154195423801776</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2379270252962938</v>
+        <v>0.25240504385376</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1700247675859489</v>
+        <v>0.442503963796608</v>
       </c>
       <c r="S13" t="n">
-        <v>1.270751338717056</v>
+        <v>0.2698083512393472</v>
       </c>
       <c r="T13" t="n">
-        <v>0.286031865528192</v>
+        <v>0.6863459932385281</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.461524756896563</v>
+        <v>0.7669761243440376</v>
       </c>
       <c r="C14" t="n">
-        <v>42.15384615384615</v>
+        <v>49.18181818181818</v>
       </c>
       <c r="D14" t="n">
-        <v>11.78942307692308</v>
+        <v>31.40192307692308</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7274200632939276</v>
+        <v>0.1551682669281146</v>
       </c>
       <c r="F14" t="n">
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>18.26666666666667</v>
+        <v>12.4</v>
       </c>
       <c r="H14" t="n">
-        <v>164.2857142857143</v>
+        <v>277.1785714285714</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9866395342315857</v>
+        <v>0.03666682771149888</v>
       </c>
       <c r="J14" t="n">
-        <v>1.148166253490688</v>
+        <v>0.059757607716912</v>
       </c>
       <c r="K14" t="n">
-        <v>1.00862948960689</v>
+        <v>0.2235450468220348</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8492529735388801</v>
+        <v>0.117354073701312</v>
       </c>
       <c r="M14" t="n">
-        <v>0.652868684514144</v>
+        <v>0.1986252357214944</v>
       </c>
       <c r="N14" t="n">
-        <v>0.584181076053456</v>
+        <v>0.3614336691745336</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3764790450554084</v>
+        <v>0.17798837098896</v>
       </c>
       <c r="P14" t="n">
-        <v>0.539225250391296</v>
+        <v>0.06814824976072145</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.506074151739744</v>
+        <v>0.0534367050378048</v>
       </c>
       <c r="R14" t="n">
-        <v>0.73071056314368</v>
+        <v>0.0576199123333848</v>
       </c>
       <c r="S14" t="n">
-        <v>0.47110443193215</v>
+        <v>0.08731828124530559</v>
       </c>
       <c r="T14" t="n">
-        <v>0.568318528744008</v>
+        <v>0.0203891489584776</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.847181569016503</v>
+        <v>5.576071879953791</v>
       </c>
       <c r="C15" t="n">
-        <v>49.5</v>
+        <v>91.25</v>
       </c>
       <c r="D15" t="n">
-        <v>14.15081168831169</v>
+        <v>37.73333333333333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8116070951005997</v>
+        <v>1.870089120180548</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>12.06896551724138</v>
+        <v>7.2</v>
       </c>
       <c r="H15" t="n">
-        <v>212.4</v>
+        <v>265.4230769230769</v>
       </c>
       <c r="I15" t="n">
-        <v>1.045959977528523</v>
+        <v>0.0183676659133968</v>
       </c>
       <c r="J15" t="n">
-        <v>0.586297363900952</v>
+        <v>0.059757607716912</v>
       </c>
       <c r="K15" t="n">
-        <v>1.261773385092571</v>
+        <v>0.4305483646273152</v>
       </c>
       <c r="L15" t="n">
-        <v>1.543753583124037</v>
+        <v>1.114015983196881</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7141309361919916</v>
+        <v>1.185757304240678</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7396670684558719</v>
+        <v>1.401948952384176</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5112649695236823</v>
+        <v>1.94188196212992</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4774492178487346</v>
+        <v>1.536764002751808</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.100050741122385</v>
+        <v>1.116477274987008</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2954056478918822</v>
+        <v>1.09596798169367</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4608666783071121</v>
+        <v>0.703716679616832</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8160017546082758</v>
+        <v>0.167101109808192</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,65 +1509,65 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.003321926602942</v>
+        <v>13.8913223276126</v>
       </c>
       <c r="C16" t="n">
-        <v>60.88888888888889</v>
+        <v>54.8</v>
       </c>
       <c r="D16" t="n">
-        <v>36.50555555555555</v>
+        <v>33.96666666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>1.455874927722153</v>
+        <v>5.135616261224903</v>
       </c>
       <c r="F16" t="n">
-        <v>86.667</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>1.888888888888889</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>252.5</v>
+        <v>212.6818181818182</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009223589809324266</v>
+        <v>1.767406174603776</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07168466350483201</v>
+        <v>0.4770822315168</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05442488855128948</v>
+        <v>1.45054745719296</v>
       </c>
       <c r="L16" t="n">
-        <v>0.157844898991584</v>
+        <v>3.05434568818512</v>
       </c>
       <c r="M16" t="n">
-        <v>0.837432227283624</v>
+        <v>5.028720160983417</v>
       </c>
       <c r="N16" t="n">
-        <v>1.063507570138634</v>
+        <v>5.143051308988801</v>
       </c>
       <c r="O16" t="n">
-        <v>0.236653757479872</v>
+        <v>7.05242876743296</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04529100651199445</v>
+        <v>7.203533933312641</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2.66432076985536</v>
       </c>
       <c r="R16" t="n">
-        <v>0.00221170429380064</v>
+        <v>1.743185076696</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0009003398010162132</v>
+        <v>1.35907271593632</v>
       </c>
       <c r="T16" t="n">
-        <v>0.004159178428608</v>
+        <v>1.54990560854304</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.273489736249467</v>
+        <v>3.461524756896563</v>
       </c>
       <c r="C17" t="n">
-        <v>73</v>
+        <v>47.60869565217391</v>
       </c>
       <c r="D17" t="n">
-        <v>25.80897435897436</v>
+        <v>13.61645962732919</v>
       </c>
       <c r="E17" t="n">
-        <v>1.398144841073305</v>
+        <v>0.9071395461443402</v>
       </c>
       <c r="F17" t="n">
-        <v>86.667</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>3.428571428571428</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>245.2692307692308</v>
+        <v>182.304347826087</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05070527819582401</v>
+        <v>0.9866395342315857</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2318925467114928</v>
+        <v>1.148166253490688</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3157061084868096</v>
+        <v>1.00862948960689</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3309727398953472</v>
+        <v>0.8492529735388801</v>
       </c>
       <c r="M17" t="n">
-        <v>0.940433057780328</v>
+        <v>0.7705081920291841</v>
       </c>
       <c r="N17" t="n">
-        <v>1.35074372179412</v>
+        <v>1.235809791597574</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2716718262804</v>
+        <v>0.70767197674992</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.780212941695936</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.78630218496e-05</v>
+        <v>0.506074151739744</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0016269727382496</v>
+        <v>0.73071056314368</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0066791512412352</v>
+        <v>0.47110443193215</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0429618665919744</v>
+        <v>0.568318528744008</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.373228689079502</v>
+        <v>4.847181569016503</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>49.5</v>
       </c>
       <c r="D18" t="n">
-        <v>10.15907224958949</v>
+        <v>14.15081168831169</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9944239315966225</v>
+        <v>0.8116070951005997</v>
       </c>
       <c r="F18" t="n">
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>11.73333333333333</v>
+        <v>14.8</v>
       </c>
       <c r="H18" t="n">
-        <v>118.6551724137931</v>
+        <v>191.8181818181818</v>
       </c>
       <c r="I18" t="n">
-        <v>1.335361321267344</v>
+        <v>1.045959977528523</v>
       </c>
       <c r="J18" t="n">
-        <v>0.80783594464896</v>
+        <v>0.586297363900952</v>
       </c>
       <c r="K18" t="n">
-        <v>0.609494395187232</v>
+        <v>1.261773385092571</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4233554325213696</v>
+        <v>1.543753583124037</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1448560921493021</v>
+        <v>0.7141309361919916</v>
       </c>
       <c r="N18" t="n">
-        <v>0.367230989490624</v>
+        <v>0.7396670684558719</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2071359823830284</v>
+        <v>0.5112649695236823</v>
       </c>
       <c r="P18" t="n">
-        <v>0.08318356857216</v>
+        <v>0.4774492178487346</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.039471418812672</v>
+        <v>2.100050741122385</v>
       </c>
       <c r="R18" t="n">
-        <v>0.118117172264544</v>
+        <v>0.2954056478918822</v>
       </c>
       <c r="S18" t="n">
-        <v>0.488301527950272</v>
+        <v>0.4608666783071121</v>
       </c>
       <c r="T18" t="n">
-        <v>1.309740856285772</v>
+        <v>0.8160017546082758</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.847181569016503</v>
+        <v>0.9410963750297181</v>
       </c>
       <c r="C19" t="n">
-        <v>49.68181818181818</v>
+        <v>40.55555555555556</v>
       </c>
       <c r="D19" t="n">
-        <v>14.15081168831169</v>
+        <v>6.892853751187085</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8116070951005997</v>
+        <v>0.1316065312507208</v>
       </c>
       <c r="F19" t="n">
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>8.933333333333334</v>
+        <v>7.551724137931035</v>
       </c>
       <c r="H19" t="n">
-        <v>191.8181818181818</v>
+        <v>235.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.045959977528523</v>
+        <v>0.008598897519851521</v>
       </c>
       <c r="J19" t="n">
-        <v>0.586297363900952</v>
+        <v>0.066587631116832</v>
       </c>
       <c r="K19" t="n">
-        <v>1.261773385092571</v>
+        <v>0.2886306724417536</v>
       </c>
       <c r="L19" t="n">
-        <v>1.543753583124037</v>
+        <v>0.138557728435392</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7141309361919916</v>
+        <v>0.250517685575232</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7396670684558719</v>
+        <v>0.41036207755788</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5112649695236823</v>
+        <v>0.204044400556416</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4774492178487346</v>
+        <v>0.07810692431371201</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.100050741122385</v>
+        <v>0.056201335405056</v>
       </c>
       <c r="R19" t="n">
-        <v>0.340043418733032</v>
+        <v>0.07324435541556</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4608666783071121</v>
+        <v>0.03274007395978368</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8160017546082758</v>
+        <v>0.066220644784896</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,65 +1785,65 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.198894941549568</v>
+        <v>2.273489736249467</v>
       </c>
       <c r="C20" t="n">
-        <v>51.90476190476191</v>
+        <v>49.63636363636363</v>
       </c>
       <c r="D20" t="n">
-        <v>34.44126984126984</v>
+        <v>30.30128205128205</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1364720227822224</v>
+        <v>1.398144841073305</v>
       </c>
       <c r="F20" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.826086956521739</v>
       </c>
       <c r="H20" t="n">
-        <v>216.6190476190476</v>
+        <v>248</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.07846167776791681</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.179578645094016</v>
       </c>
       <c r="K20" t="n">
-        <v>0.009093105780192</v>
+        <v>0.133216038492768</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04711214838223244</v>
+        <v>0.25217203665888</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09366392560944808</v>
+        <v>0.940433057780328</v>
       </c>
       <c r="N20" t="n">
-        <v>0.08567499800341441</v>
+        <v>1.35074372179412</v>
       </c>
       <c r="O20" t="n">
-        <v>0.072693875917656</v>
+        <v>0.2716718262804</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0044935437532608</v>
+        <v>0.000290530846116</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001753379141472</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.0063366306647616</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.00470721135096576</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.393490896544</v>
+        <v>8.12037996401426</v>
       </c>
       <c r="C21" t="n">
-        <v>40.55555555555556</v>
+        <v>60.88888888888889</v>
       </c>
       <c r="D21" t="n">
-        <v>16.48703703703704</v>
+        <v>33.6287037037037</v>
       </c>
       <c r="E21" t="n">
-        <v>1.363461449601366</v>
+        <v>1.800360177411756</v>
       </c>
       <c r="F21" t="n">
         <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>7.1</v>
+        <v>10.86666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2188094839779744</v>
+        <v>1.59380804751168</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2315213259218806</v>
+        <v>2.08067658121344</v>
       </c>
       <c r="K21" t="n">
-        <v>0.47079103725504</v>
+        <v>2.73465981680976</v>
       </c>
       <c r="L21" t="n">
-        <v>1.519879454111913</v>
+        <v>2.29331506380768</v>
       </c>
       <c r="M21" t="n">
-        <v>1.306857643094198</v>
+        <v>3.769031181500928</v>
       </c>
       <c r="N21" t="n">
-        <v>0.941555189064517</v>
+        <v>2.90744921476296</v>
       </c>
       <c r="O21" t="n">
-        <v>1.068174883488384</v>
+        <v>0.98189231922432</v>
       </c>
       <c r="P21" t="n">
-        <v>0.51398474600592</v>
+        <v>0.01238945856615917</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.376242542752608</v>
+        <v>0.0192594427000013</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4281884751176</v>
+        <v>0.02293909232154627</v>
       </c>
       <c r="S21" t="n">
-        <v>0.38900551185216</v>
+        <v>0.488301527950272</v>
       </c>
       <c r="T21" t="n">
-        <v>0.174807822778848</v>
+        <v>1.309740856285772</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,65 +1923,65 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8887935954884314</v>
+        <v>2.43560510149066</v>
       </c>
       <c r="C22" t="n">
-        <v>91.25</v>
+        <v>73</v>
       </c>
       <c r="D22" t="n">
-        <v>52.32202380952381</v>
+        <v>41.01960784313726</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3323857731941645</v>
+        <v>1.467723504894474</v>
       </c>
       <c r="F22" t="n">
-        <v>86.667</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>4.521739130434782</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>245.0454545454545</v>
+        <v>249.2941176470588</v>
       </c>
       <c r="I22" t="n">
-        <v>0.214442346627936</v>
+        <v>0.6001321047792708</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2202651964279872</v>
+        <v>0.7392450341741472</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3081584229266592</v>
+        <v>0.7707099272058038</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3273784980019619</v>
+        <v>0.78639336792197</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2040117795491328</v>
+        <v>1.008744372284719</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3005373401001216</v>
+        <v>1.257079874564667</v>
       </c>
       <c r="O22" t="n">
-        <v>0.070706033286336</v>
+        <v>0.3511058324813149</v>
       </c>
       <c r="P22" t="n">
-        <v>0.000978630218496</v>
+        <v>0.0062876991538368</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0174685494001536</v>
+        <v>0.0191322207715968</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0085263157786464</v>
+        <v>0.038411236075968</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0088933021105824</v>
+        <v>0.1182515591641911</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0368026126543152</v>
+        <v>0.5012501429996578</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.424505537941732</v>
+        <v>4.847181569016503</v>
       </c>
       <c r="C23" t="n">
-        <v>49.68181818181818</v>
+        <v>38.85714285714285</v>
       </c>
       <c r="D23" t="n">
-        <v>8.223927587563951</v>
+        <v>5.671971916971916</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5033698080276717</v>
+        <v>0.8116070951005997</v>
       </c>
       <c r="F23" t="n">
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>7.666666666666667</v>
+        <v>18.73333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>175.8636363636364</v>
+        <v>184.3</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8000413244184176</v>
+        <v>1.045959977528523</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8233471323046456</v>
+        <v>0.586297363900952</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8159231583688551</v>
+        <v>1.261773385092571</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7538121673924189</v>
+        <v>1.543753583124037</v>
       </c>
       <c r="M23" t="n">
-        <v>0.78473910645648</v>
+        <v>0.7141309361919916</v>
       </c>
       <c r="N23" t="n">
-        <v>0.422686701872064</v>
+        <v>0.7396670684558719</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7117117622918715</v>
+        <v>0.5112649695236823</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0927741447134208</v>
+        <v>0.4774492178487346</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2591840969298</v>
+        <v>2.100050741122385</v>
       </c>
       <c r="R23" t="n">
-        <v>0.554027032446048</v>
+        <v>0.340043418733032</v>
       </c>
       <c r="S23" t="n">
-        <v>0.373378010550552</v>
+        <v>0.4608666783071121</v>
       </c>
       <c r="T23" t="n">
-        <v>0.527420523380688</v>
+        <v>0.8160017546082758</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.308209466222389</v>
+        <v>0.2238500734388989</v>
       </c>
       <c r="C24" t="n">
-        <v>67.875</v>
+        <v>57.47368421052632</v>
       </c>
       <c r="D24" t="n">
-        <v>33.53757440476191</v>
+        <v>35.51666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.888744598444233</v>
+        <v>0.1460893824873579</v>
       </c>
       <c r="F24" t="n">
-        <v>93.333</v>
+        <v>76.667</v>
       </c>
       <c r="G24" t="n">
-        <v>6.909090909090909</v>
+        <v>3.91304347826087</v>
       </c>
       <c r="H24" t="n">
-        <v>255.8928571428571</v>
+        <v>257.3478260869565</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8585400578088066</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5621079275590701</v>
+        <v>0.0056026580008896</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8099172471514616</v>
+        <v>0.0122165672275584</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8367702404002451</v>
+        <v>0.0452636864183952</v>
       </c>
       <c r="M24" t="n">
-        <v>0.264719474103168</v>
+        <v>0.09794800815804834</v>
       </c>
       <c r="N24" t="n">
-        <v>0.09042543218902917</v>
+        <v>0.08633693260953601</v>
       </c>
       <c r="O24" t="n">
-        <v>1.522730270663177</v>
+        <v>0.04941103973186305</v>
       </c>
       <c r="P24" t="n">
-        <v>0.128200558622976</v>
+        <v>0.00434756474566848</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2012879254409842</v>
+        <v>0.008269425346291201</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1814543530128</v>
+        <v>0.0032294797210368</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1142387675057654</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.5544111448068058</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.526574154185393</v>
+        <v>2.632441890487853</v>
       </c>
       <c r="C25" t="n">
-        <v>40.11111111111111</v>
+        <v>54.6</v>
       </c>
       <c r="D25" t="n">
-        <v>5.575092191758858</v>
+        <v>20.76083333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6674969736449845</v>
+        <v>1.033732400711008</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>66.667</v>
       </c>
       <c r="G25" t="n">
-        <v>10.13333333333333</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>180.6</v>
+        <v>144.6</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8481347720106491</v>
+        <v>0.634699263178097</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4908595100615626</v>
+        <v>1.181562539258671</v>
       </c>
       <c r="K25" t="n">
-        <v>1.130005284376414</v>
+        <v>0.981618535770336</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35772913819884</v>
+        <v>0.951748469681688</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8063484849686425</v>
+        <v>0.457439724988416</v>
       </c>
       <c r="N25" t="n">
-        <v>0.4506673708692275</v>
+        <v>0.314507286469152</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4546838323909718</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.4599317369376563</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.767487727121981</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3024415914002773</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3809986856144974</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6463478411023695</v>
+        <v>0.459252812223576</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,50 +2199,50 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>San Joaquin River Basin</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.373228689079502</v>
+        <v>1.88151853570632</v>
       </c>
       <c r="C26" t="n">
-        <v>37.62068965517241</v>
+        <v>90.91666666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>10.15907224958949</v>
+        <v>52.56944444444444</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9944239315966225</v>
+        <v>1.230578228445636</v>
       </c>
       <c r="F26" t="n">
-        <v>96.667</v>
+        <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>4.206896551724138</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>110.3103448275862</v>
+        <v>180.1666666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>1.335361321267344</v>
+        <v>0.379871629812864</v>
       </c>
       <c r="J26" t="n">
-        <v>0.80783594464896</v>
+        <v>0.579471418126944</v>
       </c>
       <c r="K26" t="n">
-        <v>0.609494395187232</v>
+        <v>0.3976352510516248</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4233554325213696</v>
+        <v>0.642776560385904</v>
       </c>
       <c r="M26" t="n">
-        <v>0.009541644630336001</v>
+        <v>0.455644113292872</v>
       </c>
       <c r="N26" t="n">
-        <v>0.367230989490624</v>
+        <v>0.257379747464448</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.08523869203100161</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2251,15 +2251,498 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.007095069084096</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.09133882039296</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8.846980280240256</v>
+      </c>
+      <c r="C27" t="n">
+        <v>45.54166666666666</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20.83958333333333</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.155941436753533</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>17.93333333333333</v>
+      </c>
+      <c r="H27" t="n">
+        <v>225.5833333333333</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.082280447404864</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.805449548733204</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.8946046931452</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.138049493145735</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.6858812168566</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.35207656576648</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3.24606206640576</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.865664872110401</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.3089179172384</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.4281884751176</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.11869666851824</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.406780939088</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.001641317400777</v>
+      </c>
+      <c r="C28" t="n">
+        <v>73</v>
+      </c>
+      <c r="D28" t="n">
+        <v>33.6287037037037</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.074511161406133</v>
+      </c>
+      <c r="F28" t="n">
+        <v>60</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="H28" t="n">
+        <v>209.0555555555555</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4124844818442399</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4400655435021854</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5762930940764152</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.78639336792197</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.6119733587335551</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.5527548131619984</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0354386467872864</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>9.78630218496e-05</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0016269727382496</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0066791512412352</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.07590500632209533</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11.39257313012603</v>
+      </c>
+      <c r="C29" t="n">
+        <v>49.68181818181818</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.77884615384615</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.377111850342302</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>18.43333333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>175.8636363636364</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.76734501021512</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.50121573343936</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.620107218052609</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.12207203282336</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.20223513648832</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.422686701872064</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.5565959367696001</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.15100807954848</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.2591840969298</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.554027032446048</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.373378010550552</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.5372649682208</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2.308209466222389</v>
+      </c>
+      <c r="C30" t="n">
+        <v>67.875</v>
+      </c>
+      <c r="D30" t="n">
+        <v>33.53757440476191</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.888744598444233</v>
+      </c>
+      <c r="F30" t="n">
+        <v>96.667</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.115384615384615</v>
+      </c>
+      <c r="H30" t="n">
+        <v>255.8928571428571</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8585400578088066</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5621079275590701</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8099172471514616</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.8367702404002451</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.264719474103168</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1903925090083968</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.522730270663177</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.130708298557872</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.386803593860544</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.424236199718016</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.23104847814804</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.5544111448068058</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.183813332573824</v>
+      </c>
+      <c r="C31" t="n">
+        <v>47.56521739130435</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15.38066666666667</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5725547451764281</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="H31" t="n">
+        <v>198.2068965517241</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.7394638667646719</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.46512119551296</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.61714868153904</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.272251431677664</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5601545921095855</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9960009048743039</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.9364879547120161</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.560999772752832</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.629320394881584</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.373032868643136</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.789958467621792</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.5362893597358079</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.526574154185393</v>
+      </c>
+      <c r="C32" t="n">
+        <v>40.11111111111111</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.575092191758858</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6674969736449845</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.26666666666667</v>
+      </c>
+      <c r="H32" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8481347720106491</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4908595100615626</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.130005284376414</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.35772913819884</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8063484849686425</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.4506673708692275</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.4546838323909718</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.4599317369376563</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.767487727121981</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.3024415914002773</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.3809986856144974</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.6463478411023695</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.373228689079502</v>
+      </c>
+      <c r="C33" t="n">
+        <v>37.62068965517241</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.15907224958949</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9944239315966225</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.335361321267344</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.80783594464896</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.609494395187232</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.4233554325213696</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01256380926561246</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.367230989490624</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0045750962714688</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0219671901858024</v>
+      </c>
+      <c r="S33" t="n">
         <v>0.488301527950272</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T33" t="n">
         <v>1.309740856285772</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>max</t>
         </is>
